--- a/Data/EC/NIT-9009489584.xlsx
+++ b/Data/EC/NIT-9009489584.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BCCB562-C475-4883-9756-0DF44DF92B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B1FE90A-B160-4484-80FD-BB19664BB477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1D022014-AE94-4DD7-9AFB-A530CD907893}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D3AD33B6-9C51-491D-8624-E35C6A1427AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="118">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,295 +65,298 @@
     <t>CC</t>
   </si>
   <si>
+    <t>33357144</t>
+  </si>
+  <si>
+    <t>MARLIS MARIA TORRES VELASQUEZ</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1047400781</t>
+  </si>
+  <si>
+    <t>DANIEL ALFONSO AGUIRRE MONTES</t>
+  </si>
+  <si>
     <t>14396554</t>
   </si>
   <si>
     <t>CARLOS JULIAN CORREDOR CURREA</t>
   </si>
   <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
     <t>1711</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>33357144</t>
-  </si>
-  <si>
-    <t>MARLIS MARIA TORRES VELASQUEZ</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1047400781</t>
-  </si>
-  <si>
-    <t>DANIEL ALFONSO AGUIRRE MONTES</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -397,7 +400,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -767,7 +770,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3315070B-8F20-64CA-5AAF-99BEB60A1B96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{923FC090-BD61-B1BE-4602-5A0870AB2B26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1118,32 +1121,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F4E8C8E-DA67-42E9-B4C0-57C782EBE55D}">
-  <dimension ref="B2:J113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C921159-610D-40CD-A959-468603DF39B5}">
+  <dimension ref="B2:J114"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1152,7 +1155,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1163,7 +1166,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1174,7 +1177,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1185,10 +1188,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1201,8 +1204,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1217,15 +1220,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>17913696</v>
+        <v>18108924</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1233,27 +1236,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C13" s="5">
         <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F13" s="5">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1273,16 +1276,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>111</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1305,18 +1308,18 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>185772</v>
@@ -1328,30 +1331,30 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F18" s="18">
-        <v>185772</v>
+        <v>195228</v>
       </c>
       <c r="G18" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1362,50 +1365,50 @@
         <v>15</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F19" s="18">
-        <v>185772</v>
+        <v>195228</v>
       </c>
       <c r="G19" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D20" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F20" s="18">
-        <v>185772</v>
+        <v>195228</v>
       </c>
       <c r="G20" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>19</v>
@@ -1414,21 +1417,21 @@
         <v>195228</v>
       </c>
       <c r="G21" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>20</v>
@@ -1437,21 +1440,21 @@
         <v>195228</v>
       </c>
       <c r="G22" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>21</v>
@@ -1460,21 +1463,21 @@
         <v>195228</v>
       </c>
       <c r="G23" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>22</v>
@@ -1483,21 +1486,21 @@
         <v>195228</v>
       </c>
       <c r="G24" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>23</v>
@@ -1506,21 +1509,21 @@
         <v>195228</v>
       </c>
       <c r="G25" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>24</v>
@@ -1529,21 +1532,21 @@
         <v>195228</v>
       </c>
       <c r="G26" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>25</v>
@@ -1552,21 +1555,21 @@
         <v>195228</v>
       </c>
       <c r="G27" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>26</v>
@@ -1575,21 +1578,21 @@
         <v>195228</v>
       </c>
       <c r="G28" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>27</v>
@@ -1598,21 +1601,21 @@
         <v>195228</v>
       </c>
       <c r="G29" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>28</v>
@@ -1621,21 +1624,21 @@
         <v>195228</v>
       </c>
       <c r="G30" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>29</v>
@@ -1644,21 +1647,21 @@
         <v>195228</v>
       </c>
       <c r="G31" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>30</v>
@@ -1667,21 +1670,21 @@
         <v>195228</v>
       </c>
       <c r="G32" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>31</v>
@@ -1690,21 +1693,21 @@
         <v>195228</v>
       </c>
       <c r="G33" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>32</v>
@@ -1713,21 +1716,21 @@
         <v>195228</v>
       </c>
       <c r="G34" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>33</v>
@@ -1736,21 +1739,21 @@
         <v>195228</v>
       </c>
       <c r="G35" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>34</v>
@@ -1759,21 +1762,21 @@
         <v>195228</v>
       </c>
       <c r="G36" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>35</v>
@@ -1782,21 +1785,21 @@
         <v>195228</v>
       </c>
       <c r="G37" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>36</v>
@@ -1805,21 +1808,21 @@
         <v>195228</v>
       </c>
       <c r="G38" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>37</v>
@@ -1828,21 +1831,21 @@
         <v>195228</v>
       </c>
       <c r="G39" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>38</v>
@@ -1851,21 +1854,21 @@
         <v>195228</v>
       </c>
       <c r="G40" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>39</v>
@@ -1874,21 +1877,21 @@
         <v>195228</v>
       </c>
       <c r="G41" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E42" s="16" t="s">
         <v>40</v>
@@ -1897,21 +1900,21 @@
         <v>195228</v>
       </c>
       <c r="G42" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>41</v>
@@ -1920,21 +1923,21 @@
         <v>195228</v>
       </c>
       <c r="G43" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E44" s="16" t="s">
         <v>42</v>
@@ -1943,21 +1946,21 @@
         <v>195228</v>
       </c>
       <c r="G44" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>43</v>
@@ -1966,21 +1969,21 @@
         <v>195228</v>
       </c>
       <c r="G45" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>44</v>
@@ -1989,21 +1992,21 @@
         <v>195228</v>
       </c>
       <c r="G46" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>45</v>
@@ -2012,21 +2015,21 @@
         <v>195228</v>
       </c>
       <c r="G47" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>46</v>
@@ -2035,21 +2038,21 @@
         <v>195228</v>
       </c>
       <c r="G48" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E49" s="16" t="s">
         <v>47</v>
@@ -2058,21 +2061,21 @@
         <v>195228</v>
       </c>
       <c r="G49" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E50" s="16" t="s">
         <v>48</v>
@@ -2081,21 +2084,21 @@
         <v>195228</v>
       </c>
       <c r="G50" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E51" s="16" t="s">
         <v>49</v>
@@ -2104,21 +2107,21 @@
         <v>195228</v>
       </c>
       <c r="G51" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E52" s="16" t="s">
         <v>50</v>
@@ -2127,21 +2130,21 @@
         <v>195228</v>
       </c>
       <c r="G52" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E53" s="16" t="s">
         <v>51</v>
@@ -2150,21 +2153,21 @@
         <v>195228</v>
       </c>
       <c r="G53" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E54" s="16" t="s">
         <v>52</v>
@@ -2173,21 +2176,21 @@
         <v>195228</v>
       </c>
       <c r="G54" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E55" s="16" t="s">
         <v>53</v>
@@ -2196,21 +2199,21 @@
         <v>195228</v>
       </c>
       <c r="G55" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E56" s="16" t="s">
         <v>54</v>
@@ -2219,21 +2222,21 @@
         <v>195228</v>
       </c>
       <c r="G56" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E57" s="16" t="s">
         <v>55</v>
@@ -2242,21 +2245,21 @@
         <v>195228</v>
       </c>
       <c r="G57" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E58" s="16" t="s">
         <v>56</v>
@@ -2265,21 +2268,21 @@
         <v>195228</v>
       </c>
       <c r="G58" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>57</v>
@@ -2288,21 +2291,21 @@
         <v>195228</v>
       </c>
       <c r="G59" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>58</v>
@@ -2311,21 +2314,21 @@
         <v>195228</v>
       </c>
       <c r="G60" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E61" s="16" t="s">
         <v>59</v>
@@ -2334,21 +2337,21 @@
         <v>195228</v>
       </c>
       <c r="G61" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E62" s="16" t="s">
         <v>60</v>
@@ -2357,21 +2360,21 @@
         <v>195228</v>
       </c>
       <c r="G62" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E63" s="16" t="s">
         <v>61</v>
@@ -2380,21 +2383,21 @@
         <v>195228</v>
       </c>
       <c r="G63" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E64" s="16" t="s">
         <v>62</v>
@@ -2403,21 +2406,21 @@
         <v>195228</v>
       </c>
       <c r="G64" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E65" s="16" t="s">
         <v>63</v>
@@ -2426,21 +2429,21 @@
         <v>195228</v>
       </c>
       <c r="G65" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E66" s="16" t="s">
         <v>64</v>
@@ -2449,21 +2452,21 @@
         <v>195228</v>
       </c>
       <c r="G66" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E67" s="16" t="s">
         <v>65</v>
@@ -2472,21 +2475,21 @@
         <v>195228</v>
       </c>
       <c r="G67" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E68" s="16" t="s">
         <v>66</v>
@@ -2495,21 +2498,21 @@
         <v>195228</v>
       </c>
       <c r="G68" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E69" s="16" t="s">
         <v>67</v>
@@ -2518,21 +2521,21 @@
         <v>195228</v>
       </c>
       <c r="G69" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E70" s="16" t="s">
         <v>68</v>
@@ -2541,21 +2544,21 @@
         <v>195228</v>
       </c>
       <c r="G70" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E71" s="16" t="s">
         <v>69</v>
@@ -2564,21 +2567,21 @@
         <v>195228</v>
       </c>
       <c r="G71" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E72" s="16" t="s">
         <v>70</v>
@@ -2587,21 +2590,21 @@
         <v>195228</v>
       </c>
       <c r="G72" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="2:10">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E73" s="16" t="s">
         <v>71</v>
@@ -2610,21 +2613,21 @@
         <v>195228</v>
       </c>
       <c r="G73" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="2:10">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E74" s="16" t="s">
         <v>72</v>
@@ -2633,21 +2636,21 @@
         <v>195228</v>
       </c>
       <c r="G74" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="2:10">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E75" s="16" t="s">
         <v>73</v>
@@ -2656,21 +2659,21 @@
         <v>195228</v>
       </c>
       <c r="G75" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
       <c r="J75" s="20"/>
     </row>
-    <row r="76" spans="2:10">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E76" s="16" t="s">
         <v>74</v>
@@ -2679,21 +2682,21 @@
         <v>195228</v>
       </c>
       <c r="G76" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="2:10">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E77" s="16" t="s">
         <v>75</v>
@@ -2702,21 +2705,21 @@
         <v>195228</v>
       </c>
       <c r="G77" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
       <c r="J77" s="20"/>
     </row>
-    <row r="78" spans="2:10">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E78" s="16" t="s">
         <v>76</v>
@@ -2725,21 +2728,21 @@
         <v>195228</v>
       </c>
       <c r="G78" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
       <c r="J78" s="20"/>
     </row>
-    <row r="79" spans="2:10">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E79" s="16" t="s">
         <v>77</v>
@@ -2748,21 +2751,21 @@
         <v>195228</v>
       </c>
       <c r="G79" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
       <c r="J79" s="20"/>
     </row>
-    <row r="80" spans="2:10">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E80" s="16" t="s">
         <v>78</v>
@@ -2771,21 +2774,21 @@
         <v>195228</v>
       </c>
       <c r="G80" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
       <c r="J80" s="20"/>
     </row>
-    <row r="81" spans="2:10">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E81" s="16" t="s">
         <v>79</v>
@@ -2794,21 +2797,21 @@
         <v>195228</v>
       </c>
       <c r="G81" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
       <c r="J81" s="20"/>
     </row>
-    <row r="82" spans="2:10">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E82" s="16" t="s">
         <v>80</v>
@@ -2817,21 +2820,21 @@
         <v>195228</v>
       </c>
       <c r="G82" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
       <c r="J82" s="20"/>
     </row>
-    <row r="83" spans="2:10">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E83" s="16" t="s">
         <v>81</v>
@@ -2840,21 +2843,21 @@
         <v>195228</v>
       </c>
       <c r="G83" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
       <c r="J83" s="20"/>
     </row>
-    <row r="84" spans="2:10">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E84" s="16" t="s">
         <v>82</v>
@@ -2863,21 +2866,21 @@
         <v>195228</v>
       </c>
       <c r="G84" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
       <c r="J84" s="20"/>
     </row>
-    <row r="85" spans="2:10">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E85" s="16" t="s">
         <v>83</v>
@@ -2886,21 +2889,21 @@
         <v>195228</v>
       </c>
       <c r="G85" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
       <c r="J85" s="20"/>
     </row>
-    <row r="86" spans="2:10">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E86" s="16" t="s">
         <v>84</v>
@@ -2909,21 +2912,21 @@
         <v>195228</v>
       </c>
       <c r="G86" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
       <c r="J86" s="20"/>
     </row>
-    <row r="87" spans="2:10">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E87" s="16" t="s">
         <v>85</v>
@@ -2932,21 +2935,21 @@
         <v>195228</v>
       </c>
       <c r="G87" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
       <c r="J87" s="20"/>
     </row>
-    <row r="88" spans="2:10">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E88" s="16" t="s">
         <v>86</v>
@@ -2955,21 +2958,21 @@
         <v>195228</v>
       </c>
       <c r="G88" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
       <c r="J88" s="20"/>
     </row>
-    <row r="89" spans="2:10">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E89" s="16" t="s">
         <v>87</v>
@@ -2978,21 +2981,21 @@
         <v>195228</v>
       </c>
       <c r="G89" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
       <c r="J89" s="20"/>
     </row>
-    <row r="90" spans="2:10">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E90" s="16" t="s">
         <v>88</v>
@@ -3001,21 +3004,21 @@
         <v>195228</v>
       </c>
       <c r="G90" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
       <c r="J90" s="20"/>
     </row>
-    <row r="91" spans="2:10">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E91" s="16" t="s">
         <v>89</v>
@@ -3024,21 +3027,21 @@
         <v>195228</v>
       </c>
       <c r="G91" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
       <c r="J91" s="20"/>
     </row>
-    <row r="92" spans="2:10">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E92" s="16" t="s">
         <v>90</v>
@@ -3047,21 +3050,21 @@
         <v>195228</v>
       </c>
       <c r="G92" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
       <c r="J92" s="20"/>
     </row>
-    <row r="93" spans="2:10">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E93" s="16" t="s">
         <v>91</v>
@@ -3070,21 +3073,21 @@
         <v>195228</v>
       </c>
       <c r="G93" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
       <c r="J93" s="20"/>
     </row>
-    <row r="94" spans="2:10">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E94" s="16" t="s">
         <v>92</v>
@@ -3093,21 +3096,21 @@
         <v>195228</v>
       </c>
       <c r="G94" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
       <c r="J94" s="20"/>
     </row>
-    <row r="95" spans="2:10">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E95" s="16" t="s">
         <v>93</v>
@@ -3116,21 +3119,21 @@
         <v>195228</v>
       </c>
       <c r="G95" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
       <c r="J95" s="20"/>
     </row>
-    <row r="96" spans="2:10">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E96" s="16" t="s">
         <v>94</v>
@@ -3139,21 +3142,21 @@
         <v>195228</v>
       </c>
       <c r="G96" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
       <c r="J96" s="20"/>
     </row>
-    <row r="97" spans="2:10">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E97" s="16" t="s">
         <v>95</v>
@@ -3162,21 +3165,21 @@
         <v>195228</v>
       </c>
       <c r="G97" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
       <c r="J97" s="20"/>
     </row>
-    <row r="98" spans="2:10">
+    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E98" s="16" t="s">
         <v>96</v>
@@ -3185,21 +3188,21 @@
         <v>195228</v>
       </c>
       <c r="G98" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
       <c r="J98" s="20"/>
     </row>
-    <row r="99" spans="2:10">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B99" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E99" s="16" t="s">
         <v>97</v>
@@ -3208,21 +3211,21 @@
         <v>195228</v>
       </c>
       <c r="G99" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
       <c r="J99" s="20"/>
     </row>
-    <row r="100" spans="2:10">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B100" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E100" s="16" t="s">
         <v>98</v>
@@ -3231,21 +3234,21 @@
         <v>195228</v>
       </c>
       <c r="G100" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
       <c r="J100" s="20"/>
     </row>
-    <row r="101" spans="2:10">
+    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B101" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E101" s="16" t="s">
         <v>99</v>
@@ -3254,21 +3257,21 @@
         <v>195228</v>
       </c>
       <c r="G101" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
       <c r="J101" s="20"/>
     </row>
-    <row r="102" spans="2:10">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B102" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E102" s="16" t="s">
         <v>100</v>
@@ -3277,21 +3280,21 @@
         <v>195228</v>
       </c>
       <c r="G102" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
       <c r="J102" s="20"/>
     </row>
-    <row r="103" spans="2:10">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B103" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E103" s="16" t="s">
         <v>101</v>
@@ -3300,21 +3303,21 @@
         <v>195228</v>
       </c>
       <c r="G103" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
       <c r="J103" s="20"/>
     </row>
-    <row r="104" spans="2:10">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B104" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E104" s="16" t="s">
         <v>102</v>
@@ -3323,21 +3326,21 @@
         <v>195228</v>
       </c>
       <c r="G104" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
       <c r="J104" s="20"/>
     </row>
-    <row r="105" spans="2:10">
+    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B105" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E105" s="16" t="s">
         <v>103</v>
@@ -3346,72 +3349,84 @@
         <v>195228</v>
       </c>
       <c r="G105" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
       <c r="J105" s="20"/>
     </row>
-    <row r="106" spans="2:10">
+    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B106" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E106" s="16" t="s">
         <v>104</v>
       </c>
       <c r="F106" s="18">
-        <v>195228</v>
+        <v>185772</v>
       </c>
       <c r="G106" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
       <c r="J106" s="20"/>
     </row>
-    <row r="107" spans="2:10">
-      <c r="B107" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E107" s="22" t="s">
+    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B107" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E107" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="F107" s="24">
-        <v>195228</v>
-      </c>
-      <c r="G107" s="24">
-        <v>4644292</v>
-      </c>
-      <c r="H107" s="25"/>
-      <c r="I107" s="25"/>
-      <c r="J107" s="26"/>
-    </row>
-    <row r="112" spans="2:10">
-      <c r="B112" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="C112" s="32"/>
-      <c r="H112" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I112" s="1"/>
-      <c r="J112" s="1"/>
-    </row>
-    <row r="113" spans="2:10">
+      <c r="F107" s="18">
+        <v>185772</v>
+      </c>
+      <c r="G107" s="18">
+        <v>4880687</v>
+      </c>
+      <c r="H107" s="19"/>
+      <c r="I107" s="19"/>
+      <c r="J107" s="20"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B108" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D108" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E108" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="F108" s="24">
+        <v>185772</v>
+      </c>
+      <c r="G108" s="24">
+        <v>4880687</v>
+      </c>
+      <c r="H108" s="25"/>
+      <c r="I108" s="25"/>
+      <c r="J108" s="26"/>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="32" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C113" s="32"/>
       <c r="H113" s="1" t="s">
@@ -3420,12 +3435,23 @@
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
     </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B114" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C114" s="32"/>
+      <c r="H114" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B114:C114"/>
     <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="H114:J114"/>
     <mergeCell ref="H113:J113"/>
-    <mergeCell ref="H112:J112"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9009489584.xlsx
+++ b/Data/EC/NIT-9009489584.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B1FE90A-B160-4484-80FD-BB19664BB477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{092D33AB-3E21-4AB0-A315-E18F524141C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D3AD33B6-9C51-491D-8624-E35C6A1427AE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E184450A-F533-45A9-952B-ECA26BF3B8EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="119">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,21 @@
     <t>CC</t>
   </si>
   <si>
+    <t>14396554</t>
+  </si>
+  <si>
+    <t>CARLOS JULIAN CORREDOR CURREA</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
     <t>33357144</t>
   </si>
   <si>
@@ -80,283 +95,271 @@
     <t>DANIEL ALFONSO AGUIRRE MONTES</t>
   </si>
   <si>
-    <t>14396554</t>
-  </si>
-  <si>
-    <t>CARLOS JULIAN CORREDOR CURREA</t>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1711</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -400,7 +403,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -455,7 +458,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -468,9 +473,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -670,23 +673,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -714,10 +717,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -755,13 +758,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>667900</xdr:colOff>
+      <xdr:colOff>496450</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>62300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>430650</xdr:colOff>
+      <xdr:colOff>259200</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121850</xdr:rowOff>
     </xdr:to>
@@ -770,7 +773,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{923FC090-BD61-B1BE-4602-5A0870AB2B26}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D0DBB1F-36B1-115F-57C4-88D0053DC26D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -792,7 +795,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="921900" y="246450"/>
+          <a:off x="750450" y="246450"/>
           <a:ext cx="975600" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1121,32 +1124,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C921159-610D-40CD-A959-468603DF39B5}">
-  <dimension ref="B2:J114"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46D495F-3AE3-43C9-8F0C-745CCB5034CF}">
+  <dimension ref="B2:J115"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1155,7 +1158,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1166,7 +1169,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1177,7 +1180,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1188,10 +1191,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1204,8 +1207,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1220,15 +1223,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>18108924</v>
+        <v>18304152</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1236,27 +1239,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C13" s="5">
         <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F13" s="5">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1276,16 +1279,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>112</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1302,50 +1305,50 @@
         <v>185772</v>
       </c>
       <c r="G16" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>185772</v>
       </c>
       <c r="G17" s="18">
-        <v>4644292</v>
+        <v>4880687</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>195228</v>
+        <v>185772</v>
       </c>
       <c r="G18" s="18">
         <v>4880687</v>
@@ -1354,7 +1357,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1365,10 +1368,10 @@
         <v>15</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>195228</v>
+        <v>185772</v>
       </c>
       <c r="G19" s="18">
         <v>4880687</v>
@@ -1377,21 +1380,21 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
-        <v>195228</v>
+        <v>185772</v>
       </c>
       <c r="G20" s="18">
         <v>4880687</v>
@@ -1400,15 +1403,15 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>19</v>
@@ -1423,15 +1426,15 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>20</v>
@@ -1446,15 +1449,15 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>21</v>
@@ -1469,15 +1472,15 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>22</v>
@@ -1492,15 +1495,15 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>23</v>
@@ -1515,15 +1518,15 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>24</v>
@@ -1538,15 +1541,15 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>25</v>
@@ -1561,15 +1564,15 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>26</v>
@@ -1584,15 +1587,15 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>27</v>
@@ -1607,15 +1610,15 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>28</v>
@@ -1630,15 +1633,15 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>29</v>
@@ -1653,15 +1656,15 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>30</v>
@@ -1676,15 +1679,15 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>31</v>
@@ -1699,15 +1702,15 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>32</v>
@@ -1722,15 +1725,15 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>33</v>
@@ -1745,15 +1748,15 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>34</v>
@@ -1768,15 +1771,15 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>35</v>
@@ -1791,15 +1794,15 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>36</v>
@@ -1814,15 +1817,15 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>37</v>
@@ -1837,15 +1840,15 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>38</v>
@@ -1860,15 +1863,15 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>39</v>
@@ -1883,15 +1886,15 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
         <v>40</v>
@@ -1906,15 +1909,15 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>41</v>
@@ -1929,15 +1932,15 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
         <v>42</v>
@@ -1952,15 +1955,15 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>43</v>
@@ -1975,15 +1978,15 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:10">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>44</v>
@@ -1998,15 +2001,15 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:10">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>45</v>
@@ -2021,15 +2024,15 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:10">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>46</v>
@@ -2044,15 +2047,15 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:10">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
         <v>47</v>
@@ -2067,15 +2070,15 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:10">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
         <v>48</v>
@@ -2090,15 +2093,15 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:10">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
         <v>49</v>
@@ -2113,15 +2116,15 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:10">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
         <v>50</v>
@@ -2136,15 +2139,15 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:10">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
         <v>51</v>
@@ -2159,15 +2162,15 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:10">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
         <v>52</v>
@@ -2182,15 +2185,15 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:10">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
         <v>53</v>
@@ -2205,15 +2208,15 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:10">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
         <v>54</v>
@@ -2228,15 +2231,15 @@
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:10">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
         <v>55</v>
@@ -2251,15 +2254,15 @@
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:10">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
         <v>56</v>
@@ -2274,15 +2277,15 @@
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:10">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>57</v>
@@ -2297,15 +2300,15 @@
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:10">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>58</v>
@@ -2320,15 +2323,15 @@
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:10">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
         <v>59</v>
@@ -2343,15 +2346,15 @@
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:10">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
         <v>60</v>
@@ -2366,15 +2369,15 @@
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:10">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
         <v>61</v>
@@ -2389,15 +2392,15 @@
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:10">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
         <v>62</v>
@@ -2412,15 +2415,15 @@
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:10">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
         <v>63</v>
@@ -2435,15 +2438,15 @@
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:10">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
         <v>64</v>
@@ -2458,15 +2461,15 @@
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:10">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
         <v>65</v>
@@ -2481,15 +2484,15 @@
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:10">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
         <v>66</v>
@@ -2504,15 +2507,15 @@
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:10">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
         <v>67</v>
@@ -2527,15 +2530,15 @@
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:10">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
         <v>68</v>
@@ -2550,15 +2553,15 @@
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:10">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
         <v>69</v>
@@ -2573,15 +2576,15 @@
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:10">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
         <v>70</v>
@@ -2596,15 +2599,15 @@
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:10">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
         <v>71</v>
@@ -2619,15 +2622,15 @@
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:10">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
         <v>72</v>
@@ -2642,15 +2645,15 @@
       <c r="I74" s="19"/>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:10">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
         <v>73</v>
@@ -2665,15 +2668,15 @@
       <c r="I75" s="19"/>
       <c r="J75" s="20"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:10">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
         <v>74</v>
@@ -2688,15 +2691,15 @@
       <c r="I76" s="19"/>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:10">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
         <v>75</v>
@@ -2711,15 +2714,15 @@
       <c r="I77" s="19"/>
       <c r="J77" s="20"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:10">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
         <v>76</v>
@@ -2734,15 +2737,15 @@
       <c r="I78" s="19"/>
       <c r="J78" s="20"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:10">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
         <v>77</v>
@@ -2757,15 +2760,15 @@
       <c r="I79" s="19"/>
       <c r="J79" s="20"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:10">
       <c r="B80" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
         <v>78</v>
@@ -2780,15 +2783,15 @@
       <c r="I80" s="19"/>
       <c r="J80" s="20"/>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:10">
       <c r="B81" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
         <v>79</v>
@@ -2803,15 +2806,15 @@
       <c r="I81" s="19"/>
       <c r="J81" s="20"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:10">
       <c r="B82" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
         <v>80</v>
@@ -2826,15 +2829,15 @@
       <c r="I82" s="19"/>
       <c r="J82" s="20"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:10">
       <c r="B83" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E83" s="16" t="s">
         <v>81</v>
@@ -2849,15 +2852,15 @@
       <c r="I83" s="19"/>
       <c r="J83" s="20"/>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:10">
       <c r="B84" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
         <v>82</v>
@@ -2872,15 +2875,15 @@
       <c r="I84" s="19"/>
       <c r="J84" s="20"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:10">
       <c r="B85" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
         <v>83</v>
@@ -2895,15 +2898,15 @@
       <c r="I85" s="19"/>
       <c r="J85" s="20"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:10">
       <c r="B86" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
         <v>84</v>
@@ -2918,15 +2921,15 @@
       <c r="I86" s="19"/>
       <c r="J86" s="20"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:10">
       <c r="B87" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E87" s="16" t="s">
         <v>85</v>
@@ -2941,15 +2944,15 @@
       <c r="I87" s="19"/>
       <c r="J87" s="20"/>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:10">
       <c r="B88" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
         <v>86</v>
@@ -2964,15 +2967,15 @@
       <c r="I88" s="19"/>
       <c r="J88" s="20"/>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:10">
       <c r="B89" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E89" s="16" t="s">
         <v>87</v>
@@ -2987,15 +2990,15 @@
       <c r="I89" s="19"/>
       <c r="J89" s="20"/>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:10">
       <c r="B90" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
         <v>88</v>
@@ -3010,15 +3013,15 @@
       <c r="I90" s="19"/>
       <c r="J90" s="20"/>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:10">
       <c r="B91" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
         <v>89</v>
@@ -3033,15 +3036,15 @@
       <c r="I91" s="19"/>
       <c r="J91" s="20"/>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:10">
       <c r="B92" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
         <v>90</v>
@@ -3056,15 +3059,15 @@
       <c r="I92" s="19"/>
       <c r="J92" s="20"/>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:10">
       <c r="B93" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E93" s="16" t="s">
         <v>91</v>
@@ -3079,15 +3082,15 @@
       <c r="I93" s="19"/>
       <c r="J93" s="20"/>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:10">
       <c r="B94" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
         <v>92</v>
@@ -3102,15 +3105,15 @@
       <c r="I94" s="19"/>
       <c r="J94" s="20"/>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:10">
       <c r="B95" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E95" s="16" t="s">
         <v>93</v>
@@ -3125,15 +3128,15 @@
       <c r="I95" s="19"/>
       <c r="J95" s="20"/>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:10">
       <c r="B96" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
         <v>94</v>
@@ -3148,15 +3151,15 @@
       <c r="I96" s="19"/>
       <c r="J96" s="20"/>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:10">
       <c r="B97" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E97" s="16" t="s">
         <v>95</v>
@@ -3171,15 +3174,15 @@
       <c r="I97" s="19"/>
       <c r="J97" s="20"/>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:10">
       <c r="B98" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E98" s="16" t="s">
         <v>96</v>
@@ -3194,15 +3197,15 @@
       <c r="I98" s="19"/>
       <c r="J98" s="20"/>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:10">
       <c r="B99" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E99" s="16" t="s">
         <v>97</v>
@@ -3217,15 +3220,15 @@
       <c r="I99" s="19"/>
       <c r="J99" s="20"/>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:10">
       <c r="B100" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
         <v>98</v>
@@ -3240,15 +3243,15 @@
       <c r="I100" s="19"/>
       <c r="J100" s="20"/>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:10">
       <c r="B101" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E101" s="16" t="s">
         <v>99</v>
@@ -3263,15 +3266,15 @@
       <c r="I101" s="19"/>
       <c r="J101" s="20"/>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:10">
       <c r="B102" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E102" s="16" t="s">
         <v>100</v>
@@ -3286,15 +3289,15 @@
       <c r="I102" s="19"/>
       <c r="J102" s="20"/>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:10">
       <c r="B103" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E103" s="16" t="s">
         <v>101</v>
@@ -3309,15 +3312,15 @@
       <c r="I103" s="19"/>
       <c r="J103" s="20"/>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:10">
       <c r="B104" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E104" s="16" t="s">
         <v>102</v>
@@ -3332,15 +3335,15 @@
       <c r="I104" s="19"/>
       <c r="J104" s="20"/>
     </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:10">
       <c r="B105" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E105" s="16" t="s">
         <v>103</v>
@@ -3355,21 +3358,21 @@
       <c r="I105" s="19"/>
       <c r="J105" s="20"/>
     </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:10">
       <c r="B106" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E106" s="16" t="s">
         <v>104</v>
       </c>
       <c r="F106" s="18">
-        <v>185772</v>
+        <v>195228</v>
       </c>
       <c r="G106" s="18">
         <v>4880687</v>
@@ -3378,21 +3381,21 @@
       <c r="I106" s="19"/>
       <c r="J106" s="20"/>
     </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:10">
       <c r="B107" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E107" s="16" t="s">
         <v>105</v>
       </c>
       <c r="F107" s="18">
-        <v>185772</v>
+        <v>195228</v>
       </c>
       <c r="G107" s="18">
         <v>4880687</v>
@@ -3401,43 +3404,55 @@
       <c r="I107" s="19"/>
       <c r="J107" s="20"/>
     </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B108" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C108" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D108" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E108" s="22" t="s">
+    <row r="108" spans="2:10">
+      <c r="B108" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="F108" s="24">
-        <v>185772</v>
-      </c>
-      <c r="G108" s="24">
-        <v>4880687</v>
-      </c>
-      <c r="H108" s="25"/>
-      <c r="I108" s="25"/>
-      <c r="J108" s="26"/>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B113" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C113" s="32"/>
-      <c r="H113" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
-    </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F108" s="18">
+        <v>195228</v>
+      </c>
+      <c r="G108" s="18">
+        <v>4880687</v>
+      </c>
+      <c r="H108" s="19"/>
+      <c r="I108" s="19"/>
+      <c r="J108" s="20"/>
+    </row>
+    <row r="109" spans="2:10">
+      <c r="B109" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F109" s="24">
+        <v>195228</v>
+      </c>
+      <c r="G109" s="24">
+        <v>4880687</v>
+      </c>
+      <c r="H109" s="25"/>
+      <c r="I109" s="25"/>
+      <c r="J109" s="26"/>
+    </row>
+    <row r="114" spans="2:10">
       <c r="B114" s="32" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C114" s="32"/>
       <c r="H114" s="1" t="s">
@@ -3446,12 +3461,23 @@
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
     </row>
+    <row r="115" spans="2:10">
+      <c r="B115" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C115" s="32"/>
+      <c r="H115" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B115:C115"/>
     <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="H115:J115"/>
     <mergeCell ref="H114:J114"/>
-    <mergeCell ref="H113:J113"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
